--- a/uploads/sandbox_Care Pharma Invoice.xlsx
+++ b/uploads/sandbox_Care Pharma Invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F410F3-3E65-4B26-A08B-EFD2796DAE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02E3562-619F-4D7A-AF4B-CD0DE5C68D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{46D718F0-A1AD-48C0-B904-D3A91EBD6356}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46D718F0-A1AD-48C0-B904-D3A91EBD6356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t xml:space="preserve"> Seller Information</t>
   </si>
@@ -188,9 +188,6 @@
     <t>SN005</t>
   </si>
   <si>
-    <t>5804</t>
-  </si>
-  <si>
     <t>3041543089</t>
   </si>
   <si>
@@ -203,30 +200,6 @@
     <t>3520202533043</t>
   </si>
   <si>
-    <t>3006.1090</t>
-  </si>
-  <si>
-    <t>Product 1</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>38620</t>
-  </si>
-  <si>
-    <t>1%</t>
-  </si>
-  <si>
-    <t>386.2</t>
-  </si>
-  <si>
-    <t>39006.2</t>
-  </si>
-  <si>
-    <t>2970.77</t>
-  </si>
-  <si>
     <t>EIGHTH SCHEDULE Table 1</t>
   </si>
   <si>
@@ -237,6 +210,27 @@
   </si>
   <si>
     <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>Coughcare Syrup 120ml</t>
+  </si>
+  <si>
+    <t>Dermodex-N-Cream 15gm</t>
+  </si>
+  <si>
+    <t>Allergycare 450ml</t>
+  </si>
+  <si>
+    <t>Paincare Suspension 90ml</t>
+  </si>
+  <si>
+    <t>Salbocare Syrup 450ml</t>
+  </si>
+  <si>
+    <t>Selfcare Ointment 15gms</t>
   </si>
 </sst>
 </file>
@@ -293,12 +287,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D6626E-8A86-496F-AB8C-0856526F9310}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +674,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -735,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -743,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -751,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.35">
@@ -770,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
@@ -794,7 +789,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
@@ -880,29 +875,32 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>61</v>
+      <c r="B27" s="2">
+        <v>3006.1089999999999</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2660</v>
+      </c>
+      <c r="E27" s="2">
+        <f>D27*C27</f>
+        <v>53200</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G27" s="2">
+        <f>E27*F27</f>
+        <v>532</v>
+      </c>
+      <c r="H27" s="2">
+        <f>E27+G27</f>
+        <v>53732</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>45</v>
@@ -914,23 +912,285 @@
         <v>0</v>
       </c>
       <c r="N27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3006.1089999999999</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>13140</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28:E32" si="0">D28*C28</f>
+        <v>13140</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ref="G28:G32" si="1">E28*F28</f>
+        <v>131.4</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" ref="H28:H32" si="2">E28+G28</f>
+        <v>13271.4</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3006.1089999999999</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2376</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>47520</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>475.2</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="2"/>
+        <v>47995.199999999997</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3006.1089999999999</v>
+      </c>
+      <c r="C30" s="2">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4200</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>63000</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="2"/>
+        <v>63630</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O27" s="2">
-        <v>0</v>
-      </c>
-      <c r="P27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2" t="s">
+      <c r="B31" s="2">
+        <v>3006.1089999999999</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2340</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>2340</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>23.400000000000002</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="2"/>
+        <v>2363.4</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28"/>
+      <c r="B32" s="2">
+        <v>3006.1089999999999</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>13140</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>13140</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>131.4</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="2"/>
+        <v>13271.4</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
